--- a/Figure 4b.xlsx
+++ b/Figure 4b.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
